--- a/Check List.xlsx
+++ b/Check List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="993" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="262">
   <si>
     <t xml:space="preserve">1. Dans la première colonne, se trouve la mention "Essayé".
 Vous annotez :
@@ -824,6 +824,18 @@
   </si>
   <si>
     <t>Homosexualité</t>
+  </si>
+  <si>
+    <t>Somme</t>
+  </si>
+  <si>
+    <t>Moyenne</t>
+  </si>
+  <si>
+    <t>Résultat cumulé</t>
+  </si>
+  <si>
+    <t>Nombre</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1155,33 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1489,7 +1527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -1528,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2172,7 +2210,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:D42">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2183,8 +2221,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A2:D42">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$D2=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2192,9 +2235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
-    </sheetView>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -2853,7 +2894,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:D43">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2862,6 +2903,11 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:E43">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$D2=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2873,9 +2919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -3416,7 +3460,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:D35">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3425,6 +3469,11 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:E35">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$D2=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3436,8 +3485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4181,7 +4230,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:D49">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4190,6 +4239,11 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:E49">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$D2=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -4202,7 +4256,7 @@
   <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5215,7 +5269,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:D66">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5224,6 +5278,11 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:E66">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$D2=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
